--- a/biology/Zoologie/Hyphalosauridae/Hyphalosauridae.xlsx
+++ b/biology/Zoologie/Hyphalosauridae/Hyphalosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hyphalosauridae sont une famille fossile de petits « reptiles » aquatiques d'eau douce de l'ordre des Choristodera ayant vécu au Crétacé inférieur en Chine et au Japon.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hyphalosauridae sont caractérisés par un cou extrêmement long et une queue allongée, ainsi que des membres de taille relativement réduite. Ces caractères indiquent un mode de vie clairement aquatique. 
 Par convergence évolutive les Hyphalosauridae ressemblent beaucoup, de façon superficielle, à de grands reptiles marins plus anciens ou contemporains comme les plésiosaures ou les nothosaures. Cette ressemblance ne reflète pas de parenté évolutive, mais l'acquisition d'une morphologie semblable par adaptation à un environnement identique.
-Les Hyphalosauridae ont cependant une taille bien moindre, de quelques décimètres à environ un mètre[4] et, de plus, ils vivaient en eau douce.
-Leur cou très long possède un grand nombre de vertèbres cervicales, au moins 16 pour Shokawa et entre 19 et 26 pour Hyphalosaurus, ce qui les distinguent des autres choristodères[5].
+Les Hyphalosauridae ont cependant une taille bien moindre, de quelques décimètres à environ un mètre et, de plus, ils vivaient en eau douce.
+Leur cou très long possède un grand nombre de vertèbres cervicales, au moins 16 pour Shokawa et entre 19 et 26 pour Hyphalosaurus, ce qui les distinguent des autres choristodères.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci dessous, la synthèse du cladogramme de l'ordre Choristodera réalisée par Mikko Haaramo en 2015[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci dessous, la synthèse du cladogramme de l'ordre Choristodera réalisée par Mikko Haaramo en 2015 :
 </t>
         </is>
       </c>
